--- a/excel_files/20241106/qr_codes_20241106.xlsx
+++ b/excel_files/20241106/qr_codes_20241106.xlsx
@@ -127,64 +127,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="857250" cy="857250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="857250" cy="857250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -474,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,77 +426,45 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Serial number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>manufacturer name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>product id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lot no</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>QR Code Image</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="100" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ZDFVDF</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>ZDFBZDF</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>DFDF</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>ZDFGDFGV</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>DFGD</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="100" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>iluilluluu</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>lulul</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>ulul</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>yulul</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>uluil</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>